--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-Robo2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Robo2</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.054425</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N2">
-        <v>3.163275000000001</v>
+        <v>2.715805</v>
       </c>
       <c r="O2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P2">
-        <v>0.5590543736060203</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q2">
-        <v>0.1517275398</v>
+        <v>0.15934714257</v>
       </c>
       <c r="R2">
-        <v>1.3655478582</v>
+        <v>1.43412428313</v>
       </c>
       <c r="S2">
-        <v>0.01569327783417098</v>
+        <v>0.01712440889021909</v>
       </c>
       <c r="T2">
-        <v>0.01569327783417098</v>
+        <v>0.01712440889021908</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +623,22 @@
         <v>2.326999</v>
       </c>
       <c r="O3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P3">
-        <v>0.4112569941996302</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q3">
-        <v>0.1116152827013333</v>
+        <v>0.136534339326</v>
       </c>
       <c r="R3">
-        <v>1.004537544312</v>
+        <v>1.228809053934</v>
       </c>
       <c r="S3">
-        <v>0.01154444107035842</v>
+        <v>0.01467280690739244</v>
       </c>
       <c r="T3">
-        <v>0.01154444107035842</v>
+        <v>0.01467280690739243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,57 +655,57 @@
         <v>22</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0.176022</v>
+      </c>
+      <c r="H4">
+        <v>0.5280659999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.03293066697281707</v>
+      </c>
+      <c r="J4">
+        <v>0.03293066697281707</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.143896</v>
-      </c>
-      <c r="H4">
-        <v>0.431688</v>
-      </c>
-      <c r="I4">
-        <v>0.02807111181859822</v>
-      </c>
-      <c r="J4">
-        <v>0.02807111181859823</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>0.05599533333333334</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N4">
-        <v>0.167986</v>
+        <v>0.13267</v>
       </c>
       <c r="O4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P4">
-        <v>0.0296886321943495</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q4">
-        <v>0.008057504485333334</v>
+        <v>0.00778427958</v>
       </c>
       <c r="R4">
-        <v>0.07251754036800001</v>
+        <v>0.07005851621999999</v>
       </c>
       <c r="S4">
-        <v>0.0008333929140688201</v>
+        <v>0.0008365458224965954</v>
       </c>
       <c r="T4">
-        <v>0.0008333929140688201</v>
+        <v>0.0008365458224965951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -711,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.277274333333334</v>
+        <v>0.176022</v>
       </c>
       <c r="H5">
-        <v>12.831823</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I5">
-        <v>0.8344071140950421</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J5">
-        <v>0.8344071140950421</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.054425</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N5">
-        <v>3.163275000000001</v>
+        <v>0.047087</v>
       </c>
       <c r="O5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P5">
-        <v>0.5590543736060203</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q5">
-        <v>4.510064988925001</v>
+        <v>0.002762782638</v>
       </c>
       <c r="R5">
-        <v>40.59058490032501</v>
+        <v>0.024865043742</v>
       </c>
       <c r="S5">
-        <v>0.4664789465028109</v>
+        <v>0.0002969053527089559</v>
       </c>
       <c r="T5">
-        <v>0.4664789465028109</v>
+        <v>0.0002969053527089558</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,10 +791,10 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7756663333333332</v>
+        <v>0.9052683333333333</v>
       </c>
       <c r="N6">
-        <v>2.326999</v>
+        <v>2.715805</v>
       </c>
       <c r="O6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301739</v>
       </c>
       <c r="P6">
-        <v>0.4112569941996302</v>
+        <v>0.5200140314301738</v>
       </c>
       <c r="Q6">
-        <v>3.317737698797444</v>
+        <v>3.872081006946111</v>
       </c>
       <c r="R6">
-        <v>29.859639289177</v>
+        <v>34.848729062515</v>
       </c>
       <c r="S6">
-        <v>0.343155761681515</v>
+        <v>0.4161172729524676</v>
       </c>
       <c r="T6">
-        <v>0.343155761681515</v>
+        <v>0.4161172729524675</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,10 +853,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.05599533333333334</v>
+        <v>0.7756663333333332</v>
       </c>
       <c r="N7">
-        <v>0.167986</v>
+        <v>2.326999</v>
       </c>
       <c r="O7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="P7">
-        <v>0.0296886321943495</v>
+        <v>0.4455666482402024</v>
       </c>
       <c r="Q7">
-        <v>0.2395074020531112</v>
+        <v>3.317737698797444</v>
       </c>
       <c r="R7">
-        <v>2.155566618478</v>
+        <v>29.859639289177</v>
       </c>
       <c r="S7">
-        <v>0.02477240591071633</v>
+        <v>0.3565441841528089</v>
       </c>
       <c r="T7">
-        <v>0.02477240591071632</v>
+        <v>0.3565441841528088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -897,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -906,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7049536666666666</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H8">
-        <v>2.114861</v>
+        <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.1375217740863597</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J8">
-        <v>0.1375217740863597</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,33 +927,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>1.054425</v>
+        <v>0.04422333333333334</v>
       </c>
       <c r="N8">
-        <v>3.163275000000001</v>
+        <v>0.13267</v>
       </c>
       <c r="O8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="P8">
-        <v>0.5590543736060203</v>
+        <v>0.02540324564902162</v>
       </c>
       <c r="Q8">
-        <v>0.7433207699750001</v>
+        <v>0.1891553286011111</v>
       </c>
       <c r="R8">
-        <v>6.689886929775001</v>
+        <v>1.70239795741</v>
       </c>
       <c r="S8">
-        <v>0.07688214926903846</v>
+        <v>0.02032777706889997</v>
       </c>
       <c r="T8">
-        <v>0.07688214926903847</v>
+        <v>0.02032777706889996</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -959,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -968,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7049536666666666</v>
+        <v>4.277274333333334</v>
       </c>
       <c r="H9">
-        <v>2.114861</v>
+        <v>12.831823</v>
       </c>
       <c r="I9">
-        <v>0.1375217740863597</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J9">
-        <v>0.1375217740863597</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7756663333333332</v>
+        <v>0.01569566666666667</v>
       </c>
       <c r="N9">
-        <v>2.326999</v>
+        <v>0.047087</v>
       </c>
       <c r="O9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602103</v>
       </c>
       <c r="P9">
-        <v>0.4112569941996302</v>
+        <v>0.009016074680602101</v>
       </c>
       <c r="Q9">
-        <v>0.5468088257932221</v>
+        <v>0.06713467217788889</v>
       </c>
       <c r="R9">
-        <v>4.921279432138999</v>
+        <v>0.6042120496009999</v>
       </c>
       <c r="S9">
-        <v>0.0565567914477569</v>
+        <v>0.007214698415944017</v>
       </c>
       <c r="T9">
-        <v>0.05655679144775691</v>
+        <v>0.007214698415944015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,55 +1024,241 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.891934</v>
+      </c>
+      <c r="H10">
+        <v>2.675802</v>
+      </c>
+      <c r="I10">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="J10">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.9052683333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.715805</v>
+      </c>
+      <c r="O10">
+        <v>0.5200140314301739</v>
+      </c>
+      <c r="P10">
+        <v>0.5200140314301738</v>
+      </c>
+      <c r="Q10">
+        <v>0.8074396056233334</v>
+      </c>
+      <c r="R10">
+        <v>7.26695645061</v>
+      </c>
+      <c r="S10">
+        <v>0.0867723495874872</v>
+      </c>
+      <c r="T10">
+        <v>0.08677234958748718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7049536666666666</v>
-      </c>
-      <c r="H10">
-        <v>2.114861</v>
-      </c>
-      <c r="I10">
-        <v>0.1375217740863597</v>
-      </c>
-      <c r="J10">
-        <v>0.1375217740863597</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.05599533333333334</v>
-      </c>
-      <c r="N10">
-        <v>0.167986</v>
-      </c>
-      <c r="O10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="P10">
-        <v>0.0296886321943495</v>
-      </c>
-      <c r="Q10">
-        <v>0.03947411554955556</v>
-      </c>
-      <c r="R10">
-        <v>0.355267039946</v>
-      </c>
-      <c r="S10">
-        <v>0.004082833369564358</v>
-      </c>
-      <c r="T10">
-        <v>0.004082833369564358</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.891934</v>
+      </c>
+      <c r="H11">
+        <v>2.675802</v>
+      </c>
+      <c r="I11">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="J11">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7756663333333332</v>
+      </c>
+      <c r="N11">
+        <v>2.326999</v>
+      </c>
+      <c r="O11">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="P11">
+        <v>0.4455666482402024</v>
+      </c>
+      <c r="Q11">
+        <v>0.6918431753553332</v>
+      </c>
+      <c r="R11">
+        <v>6.226588578197999</v>
+      </c>
+      <c r="S11">
+        <v>0.07434965718000117</v>
+      </c>
+      <c r="T11">
+        <v>0.07434965718000117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.891934</v>
+      </c>
+      <c r="H12">
+        <v>2.675802</v>
+      </c>
+      <c r="I12">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="J12">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04422333333333334</v>
+      </c>
+      <c r="N12">
+        <v>0.13267</v>
+      </c>
+      <c r="O12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="P12">
+        <v>0.02540324564902162</v>
+      </c>
+      <c r="Q12">
+        <v>0.03944429459333334</v>
+      </c>
+      <c r="R12">
+        <v>0.35499865134</v>
+      </c>
+      <c r="S12">
+        <v>0.00423892275762506</v>
+      </c>
+      <c r="T12">
+        <v>0.004238922757625059</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.891934</v>
+      </c>
+      <c r="H13">
+        <v>2.675802</v>
+      </c>
+      <c r="I13">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="J13">
+        <v>0.1668654004370625</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.01569566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.047087</v>
+      </c>
+      <c r="O13">
+        <v>0.009016074680602103</v>
+      </c>
+      <c r="P13">
+        <v>0.009016074680602101</v>
+      </c>
+      <c r="Q13">
+        <v>0.01399949875266667</v>
+      </c>
+      <c r="R13">
+        <v>0.125995488774</v>
+      </c>
+      <c r="S13">
+        <v>0.001504470911949131</v>
+      </c>
+      <c r="T13">
+        <v>0.001504470911949131</v>
       </c>
     </row>
   </sheetData>
